--- a/data/Experiment/Raw/Physiology_07212025.xlsx
+++ b/data/Experiment/Raw/Physiology_07212025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fernbromley/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A960D515-063C-9F42-B34B-D0F7F2A7AAF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C0BB23F-EF8E-1E47-9CBA-8E05D55855E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17160" activeTab="1" xr2:uid="{CA551DF1-0ED1-674A-8F89-05216640288A}"/>
   </bookViews>
@@ -18,6 +18,10 @@
     <sheet name="PIFL" sheetId="2" r:id="rId3"/>
     <sheet name="PIEN" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">PSME!$B$2:$B$11</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">PSME!$B$2:$B$11</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -692,8 +696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F958DE17-0E59-E849-A835-10176DABDFD5}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView zoomScale="206" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A10" zoomScale="236" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -831,50 +835,110 @@
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="B12">
+        <v>120.3</v>
+      </c>
+      <c r="C12">
+        <v>822</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="B13">
+        <v>242.3</v>
+      </c>
+      <c r="C13">
+        <v>836</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="B14">
+        <v>61.5</v>
+      </c>
+      <c r="C14">
+        <v>823</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="B15">
+        <v>133.80000000000001</v>
+      </c>
+      <c r="C15">
+        <v>832</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>278.39999999999998</v>
+      </c>
+      <c r="C16">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>214.9</v>
+      </c>
+      <c r="C17">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>266.60000000000002</v>
+      </c>
+      <c r="C18">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>134.5</v>
+      </c>
+      <c r="C19">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>105.7</v>
+      </c>
+      <c r="C20">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>20</v>
+      </c>
+      <c r="B21">
+        <v>270.60000000000002</v>
+      </c>
+      <c r="C21">
+        <v>826</v>
       </c>
     </row>
   </sheetData>
@@ -887,8 +951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7E06963-B773-F348-8854-A3523910E721}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="157" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="257" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1026,50 +1090,110 @@
       <c r="A12" s="2" t="s">
         <v>51</v>
       </c>
+      <c r="B12">
+        <v>445.5</v>
+      </c>
+      <c r="C12">
+        <v>809</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>52</v>
       </c>
+      <c r="B13">
+        <v>332.4</v>
+      </c>
+      <c r="C13">
+        <v>808</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>53</v>
       </c>
+      <c r="B14">
+        <v>287.89999999999998</v>
+      </c>
+      <c r="C14">
+        <v>817</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>54</v>
       </c>
+      <c r="B15">
+        <v>254.6</v>
+      </c>
+      <c r="C15">
+        <v>808</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>151.1</v>
+      </c>
+      <c r="C16">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>143.9</v>
+      </c>
+      <c r="C17">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>176.9</v>
+      </c>
+      <c r="C18">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>216.8</v>
+      </c>
+      <c r="C19">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>384.2</v>
+      </c>
+      <c r="C20">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>60</v>
+      </c>
+      <c r="B21">
+        <v>96.7</v>
+      </c>
+      <c r="C21">
+        <v>778</v>
       </c>
     </row>
   </sheetData>
